--- a/DOM_Banner/output/dept_banner/Justin Hayes_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Justin Hayes_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,348 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Justin F. Hayes</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280593323</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Fighting Back against Antimicrobial Resistance with Comprehensive Policy and Education: A Narrative Review</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5038306360", au_display_name = "Justin F. Hayes", au_orcid = NA, author_position = "first", au_affiliation_raw = "Department of Medicine, Division of Infectious Diseases, Banner University Medical Center-Tucson and South, University of Arizona College of Medicine, 1501 N. Campbell Avenue, Tucson, AZ 85724, USA", institution_id = "https://openalex.org/I4210124665", institution_display_name = "Banner - University Medical Center Tucson", institution_ror = "https://ror.org/02xbk5j62", 
-    institution_country_code = "US", institution_type = "healthcare", institution_lineage = "https://openalex.org/I4210124665")</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Globally, antimicrobial resistance has emerged as a significant threat. A comprehensive plan is required to combat antimicrobial resistance. There have been national and international efforts to address this global health problem, but much work remains. Enhanced funding and regulations to support antimicrobial stewardship policy and program development, reforms to incentivize drug development to treat resistant pathogens, and efforts to strengthen One Health programs are areas for collaboration and innovation. Finally, implementation of educational interventions for trainees encompassing these key areas along with training on policy and leadership development is critical to enable sustainability of these efforts to fight back against antimicrobial resistance.</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>Antibiotics</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Antibiotics</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2736332253</t>
+          <t>https://doi.org/10.3390/antibiotics11050644</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2079-6382</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35625288</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/antibiotics11050644</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2079-6382/11/5/644/pdf?version=1652274389</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>644</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>644</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2079-6382/11/5/644/pdf?version=1652274389</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4280593323</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4280593323", doi = "https://doi.org/10.3390/antibiotics11050644", pmid = "https://pubmed.ncbi.nlm.nih.gov/35625288")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/antibiotics11050644</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2078828636", "https://openalex.org/W2104129394", "https://openalex.org/W2109071628", "https://openalex.org/W2126979693", "https://openalex.org/W2139632979", "https://openalex.org/W2140353364", "https://openalex.org/W2168908910", "https://openalex.org/W2337544276", "https://openalex.org/W2411242729", "https://openalex.org/W2479475250", "https://openalex.org/W2532525337", "https://openalex.org/W2588134046", "https://openalex.org/W2594110291", "https://openalex.org/W2747615902", 
-"https://openalex.org/W2762900611", "https://openalex.org/W2769754674", "https://openalex.org/W2789305358", "https://openalex.org/W2790273236", "https://openalex.org/W2791326569", "https://openalex.org/W2793629043", "https://openalex.org/W2800137826", "https://openalex.org/W2801851274", "https://openalex.org/W2896374296", "https://openalex.org/W2904089183", "https://openalex.org/W2912154389", "https://openalex.org/W2912906332", "https://openalex.org/W2942883994", "https://openalex.org/W2945154194", 
-"https://openalex.org/W2960800719", "https://openalex.org/W2969558030", "https://openalex.org/W2998932424", "https://openalex.org/W2999574124", "https://openalex.org/W3006793634", "https://openalex.org/W3036552328", "https://openalex.org/W3043625533", "https://openalex.org/W3090599538", "https://openalex.org/W3093991539", "https://openalex.org/W3094338265", "https://openalex.org/W3111151712", "https://openalex.org/W3128541845", "https://openalex.org/W3158432635", "https://openalex.org/W3161671202", 
-"https://openalex.org/W3168062903", "https://openalex.org/W3198560505", "https://openalex.org/W4206677002", "https://openalex.org/W4213333497", "https://openalex.org/W4226336548", "https://openalex.org/W4229048379", "https://openalex.org/W4229924182", "https://openalex.org/W4242318543", "https://openalex.org/W4285719527", "https://openalex.org/W4292805086")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W112737047", "https://openalex.org/W4385783954", "https://openalex.org/W4379284521", "https://openalex.org/W4320893938", "https://openalex.org/W4285725851", "https://openalex.org/W4313246884", "https://openalex.org/W3125992422", "https://openalex.org/W3042772701")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Justin Hayes_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Justin Hayes_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine, Division of Infectious Diseases, Banner University Medical Center-Tucson and South, University of Arizona College of Medicine, 1501 N. Campbell Avenue, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280593323</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Fighting Back against Antimicrobial Resistance with Comprehensive Policy and Education: A Narrative Review</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Antibiotics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/antibiotics11050644</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35625288</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/antibiotics11050644</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
